--- a/biology/Botanique/Frühlingsgold/Frühlingsgold.xlsx
+++ b/biology/Botanique/Frühlingsgold/Frühlingsgold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%BChlingsgold</t>
+          <t>Frühlingsgold</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Frühlingsgold' (ce qui signifie « or de printemps ») est un cultivar de rosier obtenu en 1937 par le rosiériste allemand Wilhelm Kordes II, introduit aux États-Unis en 1951[1]. Il est issu d'un croisement 'Joanna Hill' (Hill, 1928) x Rosa spinosissima var. hispida (Sims) Koehne[2].
+'Frühlingsgold' (ce qui signifie « or de printemps ») est un cultivar de rosier obtenu en 1937 par le rosiériste allemand Wilhelm Kordes II, introduit aux États-Unis en 1951. Il est issu d'un croisement 'Joanna Hill' (Hill, 1928) x Rosa spinosissima var. hispida (Sims) Koehne.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%BChlingsgold</t>
+          <t>Frühlingsgold</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cultivar présente de grandes fleurs simples (4-8 pétales. mesurant 12 cm) d'un beau jaune d'or fleurissant généreusement en bouquets au printemps[2]. Elles s'ouvrent sur de grandes étamines[3].
-Son buisson érigé au feuillage touffu vert clair possède des rameaux épineux bien arqués et peut s'élever à 245 cm pour 185 cm. Il est fort adapté aux pays du nord car il supporte des grands froids, sa zone de rusticité commençant à 4b[2]. Il est parfait pour former des haies et pour éclairer le fond des plates-bandes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar présente de grandes fleurs simples (4-8 pétales. mesurant 12 cm) d'un beau jaune d'or fleurissant généreusement en bouquets au printemps. Elles s'ouvrent sur de grandes étamines.
+Son buisson érigé au feuillage touffu vert clair possède des rameaux épineux bien arqués et peut s'élever à 245 cm pour 185 cm. Il est fort adapté aux pays du nord car il supporte des grands froids, sa zone de rusticité commençant à 4b. Il est parfait pour former des haies et pour éclairer le fond des plates-bandes.
 </t>
         </is>
       </c>
